--- a/config_10.26/shoping_config_cjj.xlsx
+++ b/config_10.26/shoping_config_cjj.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5688" uniqueCount="1957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5691" uniqueCount="1960">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7538,6 +7538,18 @@
   </si>
   <si>
     <t>79400000,8,27,27,2000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10502,13 +10514,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG724"/>
+  <dimension ref="A1:AIG725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X658" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X718" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A725" sqref="A725:XFD725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -65384,6 +65396,63 @@
         <v>1</v>
       </c>
     </row>
+    <row r="725" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A725" s="21">
+        <v>724</v>
+      </c>
+      <c r="B725" s="31">
+        <v>10641</v>
+      </c>
+      <c r="F725" s="31">
+        <v>1</v>
+      </c>
+      <c r="G725" s="31" t="s">
+        <v>1957</v>
+      </c>
+      <c r="M725" s="31">
+        <v>-31</v>
+      </c>
+      <c r="N725" s="31">
+        <v>0</v>
+      </c>
+      <c r="O725" s="31">
+        <v>0</v>
+      </c>
+      <c r="P725" s="31" t="s">
+        <v>1958</v>
+      </c>
+      <c r="Q725" s="31">
+        <v>3000</v>
+      </c>
+      <c r="S725" s="56"/>
+      <c r="X725" s="31" t="s">
+        <v>1959</v>
+      </c>
+      <c r="Y725" s="31">
+        <v>99999999</v>
+      </c>
+      <c r="Z725" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA725" s="31">
+        <v>2552233600</v>
+      </c>
+      <c r="AB725" s="31">
+        <v>14</v>
+      </c>
+      <c r="AI725" s="31">
+        <v>1</v>
+      </c>
+      <c r="AJ725" s="31">
+        <v>1</v>
+      </c>
+      <c r="AM725" s="31">
+        <v>1</v>
+      </c>
+      <c r="AN725" s="31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="H683:H688"/>

--- a/config_10.26/shoping_config_cjj.xlsx
+++ b/config_10.26/shoping_config_cjj.xlsx
@@ -7784,7 +7784,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8039,6 +8039,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10517,10 +10520,10 @@
   <dimension ref="A1:AIG725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X718" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X667" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A725" sqref="A725:XFD725"/>
+      <selection pane="bottomRight" activeCell="AB671" sqref="AB671:AB682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60569,7 +60572,7 @@
       <c r="G655" s="79" t="s">
         <v>1902</v>
       </c>
-      <c r="H655" s="88" t="s">
+      <c r="H655" s="89" t="s">
         <v>1903</v>
       </c>
       <c r="K655" s="79" t="s">
@@ -60637,7 +60640,7 @@
       <c r="G656" s="78" t="s">
         <v>1904</v>
       </c>
-      <c r="H656" s="89"/>
+      <c r="H656" s="90"/>
       <c r="K656" s="79" t="s">
         <v>1608</v>
       </c>
@@ -60703,7 +60706,7 @@
       <c r="G657" s="78" t="s">
         <v>1905</v>
       </c>
-      <c r="H657" s="89"/>
+      <c r="H657" s="90"/>
       <c r="K657" s="79" t="s">
         <v>1609</v>
       </c>
@@ -60769,7 +60772,7 @@
       <c r="G658" s="78" t="s">
         <v>1907</v>
       </c>
-      <c r="H658" s="89"/>
+      <c r="H658" s="90"/>
       <c r="K658" s="79" t="s">
         <v>1611</v>
       </c>
@@ -60835,7 +60838,7 @@
       <c r="G659" s="78" t="s">
         <v>1908</v>
       </c>
-      <c r="H659" s="89"/>
+      <c r="H659" s="90"/>
       <c r="K659" s="79" t="s">
         <v>1612</v>
       </c>
@@ -60901,7 +60904,7 @@
       <c r="G660" s="78" t="s">
         <v>1909</v>
       </c>
-      <c r="H660" s="89"/>
+      <c r="H660" s="90"/>
       <c r="K660" s="79" t="s">
         <v>1613</v>
       </c>
@@ -60967,7 +60970,7 @@
       <c r="G661" s="78" t="s">
         <v>1911</v>
       </c>
-      <c r="H661" s="89"/>
+      <c r="H661" s="90"/>
       <c r="K661" s="79" t="s">
         <v>1615</v>
       </c>
@@ -61714,8 +61717,8 @@
       <c r="AA671" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB671" s="85">
-        <v>80</v>
+      <c r="AB671" s="86">
+        <v>76</v>
       </c>
       <c r="AI671" s="85">
         <v>1</v>
@@ -61785,8 +61788,8 @@
       <c r="AA672" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB672" s="85">
-        <v>80</v>
+      <c r="AB672" s="86">
+        <v>76</v>
       </c>
       <c r="AI672" s="85">
         <v>1</v>
@@ -61856,8 +61859,8 @@
       <c r="AA673" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB673" s="85">
-        <v>80</v>
+      <c r="AB673" s="86">
+        <v>76</v>
       </c>
       <c r="AI673" s="85">
         <v>1</v>
@@ -61927,8 +61930,8 @@
       <c r="AA674" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB674" s="85">
-        <v>81</v>
+      <c r="AB674" s="86">
+        <v>77</v>
       </c>
       <c r="AI674" s="85">
         <v>1</v>
@@ -61998,8 +62001,8 @@
       <c r="AA675" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB675" s="85">
-        <v>81</v>
+      <c r="AB675" s="86">
+        <v>77</v>
       </c>
       <c r="AI675" s="85">
         <v>1</v>
@@ -62069,8 +62072,8 @@
       <c r="AA676" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB676" s="85">
-        <v>81</v>
+      <c r="AB676" s="86">
+        <v>77</v>
       </c>
       <c r="AI676" s="85">
         <v>1</v>
@@ -62140,8 +62143,8 @@
       <c r="AA677" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB677" s="85">
-        <v>82</v>
+      <c r="AB677" s="86">
+        <v>78</v>
       </c>
       <c r="AI677" s="85">
         <v>1</v>
@@ -62211,8 +62214,8 @@
       <c r="AA678" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB678" s="85">
-        <v>82</v>
+      <c r="AB678" s="86">
+        <v>78</v>
       </c>
       <c r="AI678" s="85">
         <v>1</v>
@@ -62282,8 +62285,8 @@
       <c r="AA679" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB679" s="85">
-        <v>82</v>
+      <c r="AB679" s="86">
+        <v>78</v>
       </c>
       <c r="AI679" s="85">
         <v>1</v>
@@ -62353,8 +62356,8 @@
       <c r="AA680" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB680" s="85">
-        <v>83</v>
+      <c r="AB680" s="86">
+        <v>79</v>
       </c>
       <c r="AI680" s="85">
         <v>1</v>
@@ -62424,8 +62427,8 @@
       <c r="AA681" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB681" s="85">
-        <v>83</v>
+      <c r="AB681" s="86">
+        <v>79</v>
       </c>
       <c r="AI681" s="85">
         <v>1</v>
@@ -62495,8 +62498,8 @@
       <c r="AA682" s="85">
         <v>1635782399</v>
       </c>
-      <c r="AB682" s="85">
-        <v>83</v>
+      <c r="AB682" s="86">
+        <v>79</v>
       </c>
       <c r="AI682" s="85">
         <v>1</v>
@@ -62524,7 +62527,7 @@
       <c r="G683" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H683" s="86" t="s">
+      <c r="H683" s="87" t="s">
         <v>1898</v>
       </c>
       <c r="K683" s="76" t="s">
@@ -62592,7 +62595,7 @@
       <c r="G684" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H684" s="86"/>
+      <c r="H684" s="87"/>
       <c r="K684" s="76" t="s">
         <v>1575</v>
       </c>
@@ -62658,7 +62661,7 @@
       <c r="G685" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H685" s="86"/>
+      <c r="H685" s="87"/>
       <c r="K685" s="76" t="s">
         <v>1577</v>
       </c>
@@ -62724,7 +62727,7 @@
       <c r="G686" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H686" s="86"/>
+      <c r="H686" s="87"/>
       <c r="K686" s="76" t="s">
         <v>1579</v>
       </c>
@@ -62790,7 +62793,7 @@
       <c r="G687" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H687" s="86"/>
+      <c r="H687" s="87"/>
       <c r="K687" s="76" t="s">
         <v>1581</v>
       </c>
@@ -62856,7 +62859,7 @@
       <c r="G688" s="76" t="s">
         <v>1646</v>
       </c>
-      <c r="H688" s="86"/>
+      <c r="H688" s="87"/>
       <c r="K688" s="76" t="s">
         <v>1583</v>
       </c>
@@ -62922,7 +62925,7 @@
       <c r="G689" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H689" s="86" t="s">
+      <c r="H689" s="87" t="s">
         <v>1899</v>
       </c>
       <c r="K689" s="76" t="s">
@@ -62990,7 +62993,7 @@
       <c r="G690" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H690" s="87"/>
+      <c r="H690" s="88"/>
       <c r="K690" s="76" t="s">
         <v>1575</v>
       </c>
@@ -63056,7 +63059,7 @@
       <c r="G691" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H691" s="87"/>
+      <c r="H691" s="88"/>
       <c r="K691" s="76" t="s">
         <v>1577</v>
       </c>
@@ -63122,7 +63125,7 @@
       <c r="G692" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H692" s="87"/>
+      <c r="H692" s="88"/>
       <c r="K692" s="76" t="s">
         <v>1579</v>
       </c>
@@ -63188,7 +63191,7 @@
       <c r="G693" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H693" s="87"/>
+      <c r="H693" s="88"/>
       <c r="K693" s="76" t="s">
         <v>1581</v>
       </c>
@@ -63254,7 +63257,7 @@
       <c r="G694" s="76" t="s">
         <v>1648</v>
       </c>
-      <c r="H694" s="87"/>
+      <c r="H694" s="88"/>
       <c r="K694" s="76" t="s">
         <v>1583</v>
       </c>
@@ -63551,7 +63554,7 @@
       <c r="G698" s="79" t="s">
         <v>1901</v>
       </c>
-      <c r="H698" s="88" t="s">
+      <c r="H698" s="89" t="s">
         <v>1874</v>
       </c>
       <c r="K698" s="79" t="s">
@@ -63619,7 +63622,7 @@
       <c r="G699" s="78" t="s">
         <v>1904</v>
       </c>
-      <c r="H699" s="89"/>
+      <c r="H699" s="90"/>
       <c r="K699" s="79" t="s">
         <v>1608</v>
       </c>
@@ -63685,7 +63688,7 @@
       <c r="G700" s="78" t="s">
         <v>1905</v>
       </c>
-      <c r="H700" s="89"/>
+      <c r="H700" s="90"/>
       <c r="K700" s="79" t="s">
         <v>1609</v>
       </c>
@@ -63751,7 +63754,7 @@
       <c r="G701" s="78" t="s">
         <v>1906</v>
       </c>
-      <c r="H701" s="89"/>
+      <c r="H701" s="90"/>
       <c r="K701" s="79" t="s">
         <v>1611</v>
       </c>
@@ -63817,7 +63820,7 @@
       <c r="G702" s="78" t="s">
         <v>1908</v>
       </c>
-      <c r="H702" s="89"/>
+      <c r="H702" s="90"/>
       <c r="K702" s="79" t="s">
         <v>1612</v>
       </c>
@@ -63883,7 +63886,7 @@
       <c r="G703" s="78" t="s">
         <v>1909</v>
       </c>
-      <c r="H703" s="89"/>
+      <c r="H703" s="90"/>
       <c r="K703" s="79" t="s">
         <v>1613</v>
       </c>
@@ -63949,7 +63952,7 @@
       <c r="G704" s="78" t="s">
         <v>1910</v>
       </c>
-      <c r="H704" s="89"/>
+      <c r="H704" s="90"/>
       <c r="K704" s="79" t="s">
         <v>1615</v>
       </c>
@@ -64303,7 +64306,7 @@
       <c r="G709" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H709" s="90" t="s">
+      <c r="H709" s="91" t="s">
         <v>1914</v>
       </c>
       <c r="J709" s="83" t="s">
@@ -64374,7 +64377,7 @@
       <c r="G710" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H710" s="90"/>
+      <c r="H710" s="91"/>
       <c r="J710" s="83" t="s">
         <v>1538</v>
       </c>
@@ -64443,7 +64446,7 @@
       <c r="G711" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H711" s="90"/>
+      <c r="H711" s="91"/>
       <c r="J711" s="83" t="s">
         <v>1538</v>
       </c>
@@ -64512,7 +64515,7 @@
       <c r="G712" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H712" s="90"/>
+      <c r="H712" s="91"/>
       <c r="J712" s="83" t="s">
         <v>1538</v>
       </c>
@@ -64581,7 +64584,7 @@
       <c r="G713" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H713" s="90"/>
+      <c r="H713" s="91"/>
       <c r="J713" s="83" t="s">
         <v>1545</v>
       </c>
@@ -64650,7 +64653,7 @@
       <c r="G714" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H714" s="90"/>
+      <c r="H714" s="91"/>
       <c r="J714" s="83" t="s">
         <v>1545</v>
       </c>
@@ -64719,7 +64722,7 @@
       <c r="G715" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H715" s="90"/>
+      <c r="H715" s="91"/>
       <c r="J715" s="83" t="s">
         <v>1545</v>
       </c>
@@ -64788,7 +64791,7 @@
       <c r="G716" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H716" s="90"/>
+      <c r="H716" s="91"/>
       <c r="J716" s="83" t="s">
         <v>1545</v>
       </c>
@@ -64857,7 +64860,7 @@
       <c r="G717" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H717" s="90"/>
+      <c r="H717" s="91"/>
       <c r="J717" s="83" t="s">
         <v>1552</v>
       </c>
@@ -64926,7 +64929,7 @@
       <c r="G718" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H718" s="90"/>
+      <c r="H718" s="91"/>
       <c r="J718" s="83" t="s">
         <v>1552</v>
       </c>
@@ -64995,7 +64998,7 @@
       <c r="G719" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H719" s="90"/>
+      <c r="H719" s="91"/>
       <c r="J719" s="83" t="s">
         <v>1552</v>
       </c>
@@ -65064,7 +65067,7 @@
       <c r="G720" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H720" s="90"/>
+      <c r="H720" s="91"/>
       <c r="J720" s="83" t="s">
         <v>1552</v>
       </c>
@@ -65133,7 +65136,7 @@
       <c r="G721" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H721" s="90"/>
+      <c r="H721" s="91"/>
       <c r="J721" s="83" t="s">
         <v>1441</v>
       </c>
@@ -65202,7 +65205,7 @@
       <c r="G722" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H722" s="90"/>
+      <c r="H722" s="91"/>
       <c r="J722" s="83" t="s">
         <v>1441</v>
       </c>
@@ -65271,7 +65274,7 @@
       <c r="G723" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H723" s="90"/>
+      <c r="H723" s="91"/>
       <c r="J723" s="83" t="s">
         <v>1441</v>
       </c>
@@ -65340,7 +65343,7 @@
       <c r="G724" s="83" t="s">
         <v>1913</v>
       </c>
-      <c r="H724" s="90"/>
+      <c r="H724" s="91"/>
       <c r="J724" s="83" t="s">
         <v>1441</v>
       </c>
